--- a/exports/user_record.xlsx
+++ b/exports/user_record.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Sno</t>
   </si>
@@ -22,37 +22,103 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Email Verified</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
-    <t>Phone Verified</t>
-  </si>
-  <si>
-    <t>Danish Hayat</t>
+    <t>Address</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>wavebatchplay@gmail.com</t>
+  </si>
+  <si>
+    <t>conradlane.53783@gmail.com</t>
+  </si>
+  <si>
+    <t>beckyparks.67234@gmail.com</t>
+  </si>
+  <si>
+    <t>omair@4slash.com</t>
+  </si>
+  <si>
+    <t>+923243282344</t>
+  </si>
+  <si>
+    <t>testuser@gmail.com</t>
+  </si>
+  <si>
+    <t>philipbaker.19266@gmail.com</t>
+  </si>
+  <si>
+    <t>kristenhampton.34030@gmail.com</t>
+  </si>
+  <si>
+    <t>aqeelustad708@gmail.com</t>
+  </si>
+  <si>
+    <t>annruiz.39902@gmail.com</t>
+  </si>
+  <si>
+    <t>syedmuhammadusman2@gmail.com</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>geraldinewood.19479@gmail.com</t>
+  </si>
+  <si>
+    <t>patrickmclaughlin.52433@gmail.com</t>
   </si>
   <si>
     <t>danihayat345@gmail.com</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Ahmed Usman</t>
+    <t>klwave13@gmail.com</t>
+  </si>
+  <si>
+    <t>mamieroberts.74334@gmail.com</t>
+  </si>
+  <si>
+    <t>christiacoyne.94413@gmail.com</t>
+  </si>
+  <si>
+    <t>indwave3@gmail.com</t>
+  </si>
+  <si>
+    <t>tdglobalwave13@gmail.com</t>
+  </si>
+  <si>
+    <t>boracay.qualityone2022@gmail.com</t>
+  </si>
+  <si>
+    <t>royhanson.65206@gmail.com</t>
   </si>
   <si>
     <t>ahmedusmanyt2@gmail.com</t>
   </si>
   <si>
+    <t>+923352640168</t>
+  </si>
+  <si>
     <t>ahmedusmanpakistan@gmail.com</t>
   </si>
   <si>
-    <t>Omair Media</t>
+    <t>eulafitzgerald.72161@gmail.com</t>
+  </si>
+  <si>
+    <t>elmerburton.14891@gmail.com</t>
+  </si>
+  <si>
+    <t>elainehenderson.98832@gmail.com</t>
   </si>
   <si>
     <t>omairmedia2020@gmail.com</t>
+  </si>
+  <si>
+    <t>+923243280234</t>
   </si>
 </sst>
 </file>
@@ -105,13 +171,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -127,88 +193,464 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>false</v>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>false</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="b">
-        <v>false</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>false</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="b">
-        <v>false</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="b">
-        <v>false</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="b">
-        <v>false</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>false</v>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
